--- a/Data/serviciosHabitacionesh3.xlsx
+++ b/Data/serviciosHabitacionesh3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegarcia/Desktop/Rockstars/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegarcia/Desktop/Rockstars/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D37BF6C-E0B4-2C4C-BFE7-1BFB15636CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C1B197-55B3-2D44-97E4-E5E37AF20ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{02F10458-FCCC-694A-9E90-6B4AB67523BB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" xr2:uid="{02F10458-FCCC-694A-9E90-6B4AB67523BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,10 +419,13 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -452,7 +455,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>10101</v>
+        <v>1000310101</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -478,7 +481,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>10102</v>
+        <v>1000310102</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -504,7 +507,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>10103</v>
+        <v>1000310103</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -530,7 +533,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10104</v>
+        <v>1000310104</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -556,7 +559,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10105</v>
+        <v>1000310105</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -582,7 +585,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>10106</v>
+        <v>1000310106</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -608,7 +611,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>10107</v>
+        <v>1000310107</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -634,7 +637,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>10108</v>
+        <v>1000310108</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -660,7 +663,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10109</v>
+        <v>1000310109</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -686,7 +689,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10110</v>
+        <v>1000310110</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
